--- a/examples/blog2_output_simple.xlsx
+++ b/examples/blog2_output_simple.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuxinl/Documents/CIMC/tools/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42857932-8F39-C34C-8C3E-E5FD1C62471B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>vcpu</t>
   </si>
@@ -25,6 +31,12 @@
     <t>服务器</t>
   </si>
   <si>
+    <t>target_cpu_rate</t>
+  </si>
+  <si>
+    <t>target_memory_rate</t>
+  </si>
+  <si>
     <t>target_type</t>
   </si>
   <si>
@@ -76,22 +88,22 @@
     <t xml:space="preserve">enprds4db01 </t>
   </si>
   <si>
-    <t>r5.24xlarge</t>
-  </si>
-  <si>
-    <t>c5.9xlarge</t>
-  </si>
-  <si>
-    <t>c5.2xlarge</t>
-  </si>
-  <si>
-    <t>c5.large</t>
+    <t>m4.16xlarge</t>
+  </si>
+  <si>
+    <t>r5.4xlarge</t>
+  </si>
+  <si>
+    <t>r5.xlarge</t>
+  </si>
+  <si>
+    <t>t2.micro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -144,17 +156,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -201,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +499,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,317 +544,395 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
         <v>64</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>256</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2">
+        <v>256</v>
+      </c>
+      <c r="I2" s="2">
+        <v>122433</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44.994999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2">
+        <v>256</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2">
+        <v>256</v>
+      </c>
+      <c r="I3" s="2">
+        <v>122433</v>
+      </c>
+      <c r="J3" s="2">
+        <v>44.994999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24754</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9.7490000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>128</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24754</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.7490000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6188</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6188</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4</v>
+      </c>
+      <c r="H8" s="2">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6188</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>716</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6188</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6188</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.4369999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2">
+        <v>256</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>96</v>
-      </c>
-      <c r="F2">
-        <v>768</v>
-      </c>
-      <c r="G2">
-        <v>148522</v>
-      </c>
-      <c r="H2">
-        <v>58.492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2">
         <v>64</v>
       </c>
-      <c r="B3">
+      <c r="H12" s="2">
         <v>256</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>96</v>
-      </c>
-      <c r="F3">
-        <v>768</v>
-      </c>
-      <c r="G3">
-        <v>148522</v>
-      </c>
-      <c r="H3">
-        <v>58.492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
+      <c r="I12" s="2">
+        <v>122433</v>
+      </c>
+      <c r="J12" s="2">
+        <v>44.994999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B13" s="2">
+        <v>256</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>72</v>
-      </c>
-      <c r="G4">
-        <v>38793</v>
-      </c>
-      <c r="H4">
-        <v>13.309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>72</v>
-      </c>
-      <c r="G5">
-        <v>38793</v>
-      </c>
-      <c r="H5">
-        <v>13.309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>8621</v>
-      </c>
-      <c r="H6">
-        <v>2.957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>8621</v>
-      </c>
-      <c r="H7">
-        <v>2.957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>8621</v>
-      </c>
-      <c r="H8">
-        <v>2.957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>2155</v>
-      </c>
-      <c r="H9">
-        <v>0.739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>8621</v>
-      </c>
-      <c r="H10">
-        <v>2.957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>8621</v>
-      </c>
-      <c r="H11">
-        <v>2.957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>64</v>
-      </c>
-      <c r="B12">
+      <c r="H13" s="2">
         <v>256</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>96</v>
-      </c>
-      <c r="F12">
-        <v>768</v>
-      </c>
-      <c r="G12">
-        <v>148522</v>
-      </c>
-      <c r="H12">
-        <v>58.492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>64</v>
-      </c>
-      <c r="B13">
-        <v>256</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>96</v>
-      </c>
-      <c r="F13">
-        <v>768</v>
-      </c>
-      <c r="G13">
-        <v>148522</v>
-      </c>
-      <c r="H13">
-        <v>58.492</v>
+      <c r="I13" s="2">
+        <v>122433</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44.994999999999997</v>
       </c>
     </row>
   </sheetData>
